--- a/horarios_optimizados-546-push_gap_0.80.xlsx
+++ b/horarios_optimizados-546-push_gap_0.80.xlsx
@@ -635,12 +635,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -681,100 +681,28 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="inlineStr"/>
+      <c r="O6" s="4" t="inlineStr"/>
+      <c r="P6" s="4" t="inlineStr"/>
+      <c r="Q6" s="4" t="inlineStr"/>
+      <c r="R6" s="4" t="inlineStr"/>
+      <c r="S6" s="4" t="inlineStr"/>
+      <c r="T6" s="4" t="inlineStr"/>
+      <c r="U6" s="4" t="inlineStr"/>
+      <c r="V6" s="4" t="inlineStr"/>
+      <c r="W6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -782,17 +710,33 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -808,7 +752,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -849,21 +797,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
+      <c r="W7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -871,28 +807,100 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I8" s="4" t="inlineStr"/>
       <c r="J8" s="4" t="inlineStr"/>
       <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="inlineStr"/>
-      <c r="N8" s="4" t="inlineStr"/>
-      <c r="O8" s="4" t="inlineStr"/>
-      <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -908,7 +916,11 @@
       <c r="G9" s="4" t="inlineStr"/>
       <c r="H9" s="4" t="inlineStr"/>
       <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -924,11 +936,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -944,7 +952,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -965,11 +977,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1002,20 +1010,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="inlineStr"/>
       <c r="I10" s="4" t="inlineStr"/>
       <c r="J10" s="4" t="inlineStr"/>
-      <c r="K10" s="4" t="inlineStr"/>
-      <c r="L10" s="4" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1078,21 +1086,9 @@
       <c r="C11" s="4" t="inlineStr"/>
       <c r="D11" s="4" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1113,12 +1109,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr"/>
       <c r="O11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1149,7 +1145,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V11" s="4" t="inlineStr"/>
       <c r="W11" s="4" t="inlineStr"/>
     </row>
@@ -1239,67 +1239,19 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
       <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr"/>
       <c r="O15" s="4" t="inlineStr"/>
       <c r="P15" s="4" t="inlineStr"/>
       <c r="Q15" s="4" t="inlineStr"/>
@@ -1316,24 +1268,80 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr"/>
       <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" s="4" t="inlineStr"/>
-      <c r="M16" s="4" t="inlineStr"/>
-      <c r="N16" s="4" t="inlineStr"/>
-      <c r="O16" s="4" t="inlineStr"/>
-      <c r="P16" s="4" t="inlineStr"/>
-      <c r="Q16" s="4" t="inlineStr"/>
-      <c r="R16" s="4" t="inlineStr"/>
-      <c r="S16" s="4" t="inlineStr"/>
+      <c r="M16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T16" s="4" t="inlineStr"/>
       <c r="U16" s="4" t="inlineStr"/>
       <c r="V16" s="4" t="inlineStr"/>
@@ -1351,27 +1359,19 @@
       <c r="E17" s="4" t="inlineStr"/>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H17" s="4" t="inlineStr"/>
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr"/>
       <c r="K17" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr"/>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1402,11 +1402,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S17" s="4" t="inlineStr"/>
       <c r="T17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1434,33 +1430,25 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
       <c r="F18" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1486,11 +1474,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N18" s="4" t="inlineStr"/>
       <c r="O18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1526,8 +1510,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr"/>
-      <c r="W18" s="4" t="inlineStr"/>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1570,12 +1562,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N19" s="4" t="inlineStr"/>
       <c r="O19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1611,11 +1603,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V19" s="4" t="inlineStr"/>
       <c r="W19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1717,33 +1705,45 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
       <c r="M21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1759,7 +1759,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr"/>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1780,11 +1784,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U21" s="4" t="inlineStr"/>
       <c r="V21" s="4" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr"/>
     </row>
@@ -1948,10 +1948,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1959,39 +1975,15 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr"/>
       <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="inlineStr"/>
       <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I26" s="4" t="inlineStr"/>
+      <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2012,11 +2004,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O26" s="4" t="inlineStr"/>
       <c r="P26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2037,10 +2025,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2077,25 +2081,33 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" s="4" t="inlineStr"/>
-      <c r="E28" s="4" t="inlineStr"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
       <c r="I28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2161,16 +2173,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V28" s="4" t="inlineStr"/>
+      <c r="W28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -2178,15 +2182,47 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr"/>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2207,47 +2243,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O29" s="4" t="inlineStr"/>
       <c r="P29" s="4" t="inlineStr"/>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q29" s="4" t="inlineStr"/>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr"/>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr"/>
+      <c r="W29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2275,29 +2279,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
-      <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr"/>
+      <c r="J30" s="4" t="inlineStr"/>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
       <c r="M30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2384,17 +2384,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N31" s="4" t="inlineStr"/>
+      <c r="N31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O31" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P31" s="4" t="inlineStr"/>
       <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2509,20 +2509,40 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr"/>
-      <c r="C35" s="4" t="inlineStr"/>
-      <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H35" s="4" t="inlineStr"/>
       <c r="I35" s="4" t="inlineStr"/>
       <c r="J35" s="4" t="inlineStr"/>
-      <c r="K35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K35" s="4" t="inlineStr"/>
       <c r="L35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2548,7 +2568,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q35" s="4" t="inlineStr"/>
+      <c r="Q35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2559,26 +2583,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T35" s="4" t="inlineStr"/>
+      <c r="U35" s="4" t="inlineStr"/>
+      <c r="V35" s="4" t="inlineStr"/>
+      <c r="W35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -2586,10 +2594,26 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr"/>
-      <c r="C36" s="4" t="inlineStr"/>
-      <c r="D36" s="4" t="inlineStr"/>
-      <c r="E36" s="4" t="inlineStr"/>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2600,11 +2624,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H36" s="4" t="inlineStr"/>
       <c r="I36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2630,52 +2650,24 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N36" s="4" t="inlineStr"/>
+      <c r="N36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O36" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P36" s="4" t="inlineStr"/>
+      <c r="Q36" s="4" t="inlineStr"/>
+      <c r="R36" s="4" t="inlineStr"/>
+      <c r="S36" s="4" t="inlineStr"/>
+      <c r="T36" s="4" t="inlineStr"/>
+      <c r="U36" s="4" t="inlineStr"/>
+      <c r="V36" s="4" t="inlineStr"/>
+      <c r="W36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2683,40 +2675,36 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B37" s="4" t="inlineStr"/>
+      <c r="C37" s="4" t="inlineStr"/>
+      <c r="D37" s="4" t="inlineStr"/>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
-      <c r="J37" s="4" t="inlineStr"/>
-      <c r="K37" s="4" t="inlineStr"/>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L37" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2737,11 +2725,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P37" s="4" t="inlineStr"/>
       <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2762,7 +2746,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U37" s="4" t="inlineStr"/>
+      <c r="U37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V37" s="4" t="inlineStr"/>
       <c r="W37" s="4" t="inlineStr"/>
     </row>
@@ -2885,8 +2873,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V39" s="4" t="inlineStr"/>
-      <c r="W39" s="4" t="inlineStr"/>
+      <c r="V39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -2896,35 +2892,31 @@
       </c>
       <c r="B40" s="4" t="inlineStr"/>
       <c r="C40" s="4" t="inlineStr"/>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2955,11 +2947,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S40" s="4" t="inlineStr"/>
       <c r="T40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2987,26 +2975,10 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B41" s="4" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr"/>
+      <c r="D41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
       <c r="F41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3022,15 +2994,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr"/>
-      <c r="K41" s="4" t="inlineStr"/>
-      <c r="L41" s="4" t="inlineStr"/>
-      <c r="M41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr"/>
       <c r="N41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3051,10 +3035,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R41" s="4" t="inlineStr"/>
-      <c r="S41" s="4" t="inlineStr"/>
-      <c r="T41" s="4" t="inlineStr"/>
-      <c r="U41" s="4" t="inlineStr"/>
+      <c r="R41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V41" s="4" t="inlineStr"/>
       <c r="W41" s="4" t="inlineStr"/>
     </row>
@@ -3151,8 +3151,16 @@
       <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="inlineStr"/>
       <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="4" t="inlineStr"/>
-      <c r="J45" s="4" t="inlineStr"/>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K45" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3163,11 +3171,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M45" s="4" t="inlineStr"/>
       <c r="N45" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3183,7 +3187,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr"/>
+      <c r="Q45" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R45" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3227,22 +3235,82 @@
       <c r="E46" s="4" t="inlineStr"/>
       <c r="F46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="inlineStr"/>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr"/>
-      <c r="J46" s="4" t="inlineStr"/>
-      <c r="K46" s="4" t="inlineStr"/>
-      <c r="L46" s="4" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr"/>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N46" s="4" t="inlineStr"/>
-      <c r="O46" s="4" t="inlineStr"/>
-      <c r="P46" s="4" t="inlineStr"/>
-      <c r="Q46" s="4" t="inlineStr"/>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr"/>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr"/>
-      <c r="W46" s="4" t="inlineStr"/>
+      <c r="O46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -3280,15 +3348,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr"/>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I47" s="4" t="inlineStr"/>
       <c r="J47" s="4" t="inlineStr"/>
       <c r="K47" s="4" t="inlineStr"/>
-      <c r="L47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L47" s="4" t="inlineStr"/>
       <c r="M47" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3334,8 +3402,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V47" s="4" t="inlineStr"/>
-      <c r="W47" s="4" t="inlineStr"/>
+      <c r="V47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -3343,100 +3419,28 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B48" s="4" t="inlineStr"/>
+      <c r="C48" s="4" t="inlineStr"/>
+      <c r="D48" s="4" t="inlineStr"/>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
       <c r="I48" s="4" t="inlineStr"/>
       <c r="J48" s="4" t="inlineStr"/>
       <c r="K48" s="4" t="inlineStr"/>
       <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr"/>
+      <c r="Q48" s="4" t="inlineStr"/>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr"/>
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr"/>
+      <c r="W48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -3444,42 +3448,14 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B49" s="4" t="inlineStr"/>
+      <c r="C49" s="4" t="inlineStr"/>
+      <c r="D49" s="4" t="inlineStr"/>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
       <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I49" s="4" t="inlineStr"/>
       <c r="J49" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3505,15 +3481,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O49" s="4" t="inlineStr"/>
-      <c r="P49" s="4" t="inlineStr"/>
+      <c r="O49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q49" s="4" t="inlineStr"/>
-      <c r="R49" s="4" t="inlineStr"/>
-      <c r="S49" s="4" t="inlineStr"/>
-      <c r="T49" s="4" t="inlineStr"/>
-      <c r="U49" s="4" t="inlineStr"/>
-      <c r="V49" s="4" t="inlineStr"/>
-      <c r="W49" s="4" t="inlineStr"/>
+      <c r="R49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -3526,8 +3534,16 @@
       <c r="D50" s="4" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr"/>
       <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="4" t="inlineStr"/>
-      <c r="H50" s="4" t="inlineStr"/>
+      <c r="G50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3670,26 +3686,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R51" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S51" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T51" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U51" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr"/>
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
       <c r="V51" s="4" t="inlineStr"/>
       <c r="W51" s="4" t="inlineStr"/>
     </row>
@@ -4085,12 +4085,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>16:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -4123,29 +4123,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4166,29 +4154,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4209,17 +4197,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4240,22 +4240,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -4288,12 +4288,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4326,26 +4326,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>0.5</v>
@@ -4369,29 +4369,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4412,17 +4400,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4443,17 +4443,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
         <v>0.5</v>
@@ -4486,29 +4486,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -4534,21 +4534,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>0.5</v>
@@ -4615,29 +4615,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -4673,11 +4673,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -4701,29 +4701,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -4775,20 +4775,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>9</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4808,22 +4818,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -4856,12 +4866,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4870,10 +4880,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -4899,12 +4909,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4937,29 +4947,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -4980,26 +4990,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I24" t="n">
         <v>0.5</v>
@@ -5023,29 +5033,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -5112,11 +5122,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -5140,17 +5150,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5159,10 +5169,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -5183,29 +5193,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
@@ -5226,17 +5236,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5245,7 +5255,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
         <v>0.5</v>
@@ -5269,17 +5279,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -5305,21 +5327,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -5343,29 +5365,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5386,26 +5396,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I34" t="n">
         <v>0.5</v>
@@ -5429,7 +5439,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5448,7 +5458,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
         <v>0.5</v>
@@ -5487,11 +5497,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
